--- a/CASL-2 COMPS/DOCUMENTATION/RV-R-SPSS-SS-comps-reg-precision-explained.xlsx
+++ b/CASL-2 COMPS/DOCUMENTATION/RV-R-SPSS-SS-comps-reg-precision-explained.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dherzberg/Desktop/NORMS-R/CASL-2 COMPS/DOCUMENTATION/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dherzberg/Desktop/R/NORMS-R/CASL-2 COMPS/DOCUMENTATION/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CA09A5-5A4A-E14B-8545-4C6344AFE3C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D45B1AB-9786-8D43-9A1D-7DA61B24420C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{BD820E26-28D2-A74A-BE86-F23E67AD5F40}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="2" xr2:uid="{BD820E26-28D2-A74A-BE86-F23E67AD5F40}"/>
   </bookViews>
   <sheets>
     <sheet name="Narrative" sheetId="3" r:id="rId1"/>
@@ -3006,12 +3006,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="132" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3021,7 +3023,7 @@
   <dimension ref="A1:DB73"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
@@ -26390,6 +26392,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="cellIs" dxfId="104" priority="103" operator="greaterThan">
       <formula>2.5</formula>
@@ -26776,15 +26779,16 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E724D65-AB1B-6049-A7F3-D7FC49BA98F1}">
-  <dimension ref="A1:P76"/>
+  <dimension ref="A1:W76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="N54" sqref="N54"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -26795,7 +26799,7 @@
     <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>112</v>
       </c>
@@ -26803,7 +26807,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>111</v>
       </c>
@@ -26835,7 +26839,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -26864,8 +26868,11 @@
         <v>9.1157000000000004</v>
       </c>
       <c r="K3" s="2"/>
+      <c r="V3" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -26901,8 +26908,14 @@
         <f t="shared" ref="K4:K37" si="4">(H4-H3)/((I3+J3+I4+J4)/4)</f>
         <v>0.27045224524583167</v>
       </c>
+      <c r="V4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="W4" s="1">
+        <v>12.40203593</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -26938,8 +26951,14 @@
         <f t="shared" si="4"/>
         <v>0.26062942667157624</v>
       </c>
+      <c r="V5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="W5" s="1">
+        <v>2.7465152499999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -26975,8 +26994,14 @@
         <f t="shared" si="4"/>
         <v>0.2510709055070422</v>
       </c>
+      <c r="V6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="W6" s="1">
+        <v>-7.1367929999999996E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -27012,8 +27037,14 @@
         <f t="shared" si="4"/>
         <v>0.2417902423726539</v>
       </c>
+      <c r="V7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W7" s="1">
+        <v>9.3720999999999995E-4</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -27050,7 +27081,7 @@
         <v>0.23280194172544555</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -27087,7 +27118,7 @@
         <v>0.22412153542850527</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -27124,7 +27155,7 @@
         <v>0.215765675359787</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -27161,7 +27192,7 @@
         <v>0.20775223622198727</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -27198,7 +27229,7 @@
         <v>0.20010042988891485</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -27235,7 +27266,7 @@
         <v>0.19283093282743749</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -27272,7 +27303,7 @@
         <v>0.18596602837330581</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -27309,7 +27340,7 @@
         <v>0.17952976592100592</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -27938,7 +27969,7 @@
         <v>0.17292453383944273</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -27975,7 +28006,7 @@
         <v>0.18212254447178242</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -28012,7 +28043,7 @@
         <v>0.19302882114244205</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -28049,7 +28080,7 @@
         <v>0.20581155433287315</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -28086,7 +28117,7 @@
         <v>0.22066176307193064</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -28123,21 +28154,21 @@
         <v>0.23779730413581004</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>112</v>
       </c>
@@ -28145,7 +28176,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>111</v>
       </c>
@@ -28177,7 +28208,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>1</v>
       </c>
@@ -28207,7 +28238,7 @@
       </c>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -28245,7 +28276,7 @@
         <v>0.27048161934693427</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>3</v>
       </c>
@@ -28282,7 +28313,7 @@
         <v>0.26070764365699955</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>4</v>
       </c>
@@ -28320,7 +28351,7 @@
         <v>0.25122419310435939</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>5</v>
       </c>
@@ -28358,7 +28389,7 @@
         <v>0.24204617400654108</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>6</v>
       </c>
@@ -28396,7 +28427,7 @@
         <v>0.23318953017992838</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>7</v>
       </c>
@@ -28433,11 +28464,8 @@
         <f t="shared" si="9"/>
         <v>0.22467133480227305</v>
       </c>
-      <c r="O48" s="1" t="s">
-        <v>113</v>
-      </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>8</v>
       </c>
@@ -28473,14 +28501,8 @@
         <f t="shared" si="9"/>
         <v>0.21650989221161002</v>
       </c>
-      <c r="O49" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="P49" s="1">
-        <v>12.40203593</v>
-      </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>9</v>
       </c>
@@ -28516,14 +28538,8 @@
         <f t="shared" si="9"/>
         <v>0.20872485091853463</v>
       </c>
-      <c r="O50" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="P50" s="1">
-        <v>2.7465152499999999</v>
-      </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>10</v>
       </c>
@@ -28559,14 +28575,8 @@
         <f t="shared" si="9"/>
         <v>0.2013373292998073</v>
       </c>
-      <c r="O51" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P51" s="1">
-        <v>-7.1367929999999996E-2</v>
-      </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>11</v>
       </c>
@@ -28602,14 +28612,8 @@
         <f t="shared" si="9"/>
         <v>0.19437005566511117</v>
       </c>
-      <c r="O52" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="P52" s="1">
-        <v>9.3720999999999995E-4</v>
-      </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>12</v>
       </c>
@@ -28646,7 +28650,7 @@
         <v>0.18784752465169502</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>13</v>
       </c>
@@ -28683,7 +28687,7 @@
         <v>0.18179617221155403</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>14</v>
       </c>
@@ -28720,7 +28724,7 @@
         <v>0.1762445718219233</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>15</v>
       </c>
@@ -28757,7 +28761,7 @@
         <v>0.17122365498419201</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>16</v>
       </c>
@@ -28794,7 +28798,7 @@
         <v>0.1667669595927545</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>17</v>
       </c>
@@ -28831,7 +28835,7 @@
         <v>0.16291091037204164</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>18</v>
       </c>
@@ -28868,7 +28872,7 @@
         <v>0.15969513631846449</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>19</v>
       </c>
@@ -28905,7 +28909,7 @@
         <v>0.15716283097222672</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>20</v>
       </c>
@@ -28942,7 +28946,7 @@
         <v>0.15536116241582273</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>21</v>
       </c>
@@ -28979,7 +28983,7 @@
         <v>0.15434174119533897</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>22</v>
       </c>
@@ -29016,7 +29020,7 @@
         <v>0.15416115594156901</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>23</v>
       </c>
@@ -29498,6 +29502,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
